--- a/new_excel.xlsx
+++ b/new_excel.xlsx
@@ -50,25 +50,49 @@
     <t>X-Powered-by:</t>
   </si>
   <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/jsmenu/auto_crosstraining.php/</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>www.webscantest.com</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Apache/2.4.7 (Ubuntu)</t>
+  </si>
+  <si>
+    <t>text/html; charset=iso-8859-1</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>/datastore/search_single_by_name.php/</t>
+  </si>
+  <si>
+    <t>/login.php/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/datastore/ </t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
     <t>/react/</t>
   </si>
   <si>
     <t>/https://fb.me/react-dom-0.14.6.js/</t>
   </si>
   <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>www.webscantest.com</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Apache/2.4.7 (Ubuntu)</t>
-  </si>
-  <si>
-    <t>text/html; charset=iso-8859-1</t>
+    <t xml:space="preserve">/ </t>
   </si>
   <si>
     <t>290</t>
@@ -77,22 +101,136 @@
     <t>/jsmenu/auto_datastore.php/</t>
   </si>
   <si>
+    <t>/jsmenu/gotoajax.php/</t>
+  </si>
+  <si>
+    <t>/jsmenu/cookie_set_coffeepits.php/</t>
+  </si>
+  <si>
+    <t>/rest/demo/</t>
+  </si>
+  <si>
+    <t>/http://ajax.aspnetcdn.com/ajax/jquery/jquery-1.9.0.js/</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>/jsmenu/auto_shutterdb.php/</t>
+  </si>
+  <si>
     <t>/privacy.php/</t>
   </si>
   <si>
-    <t xml:space="preserve">/ </t>
-  </si>
-  <si>
     <t>309</t>
   </si>
   <si>
-    <t>/rest/demo/</t>
+    <t>/soap/demo/</t>
+  </si>
+  <si>
+    <t>/http://netdna.bootstrapcdn.com/twitter-bootstrap/2.3.2/js/bootstrap.min.js/</t>
+  </si>
+  <si>
+    <t>/datastore/search_by_name.php/</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>/static/</t>
+  </si>
+  <si>
+    <t>/myfiles/</t>
+  </si>
+  <si>
+    <t>/blah.txt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/jsmenu/dynalink_myfiles.php </t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/datastore/search_by_name.php </t>
+  </si>
+  <si>
+    <t>/shutterform/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/jsmenu/auto_shutterdb.php </t>
+  </si>
+  <si>
+    <t>296</t>
   </si>
   <si>
     <t>/http://ajax.aspnetcdn.com/ajax/knockout/knockout-2.2.1.js/</t>
   </si>
   <si>
-    <t>294</t>
+    <t>/jsmenu/dynalink_myfiles.php/</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>/https://cdnjs.cloudflare.com/ajax/libs/babel-core/5.8.24/browser.js/</t>
+  </si>
+  <si>
+    <t>/datastore/</t>
+  </si>
+  <si>
+    <t>/search_by_id.php/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/jsmenu/auto_datastore.php </t>
+  </si>
+  <si>
+    <t>/datastore/search_by_id.php/</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>/js7.js/</t>
+  </si>
+  <si>
+    <t>/cors/cors.php/</t>
+  </si>
+  <si>
+    <t>/#/</t>
+  </si>
+  <si>
+    <t>/search_by_name.php/</t>
+  </si>
+  <si>
+    <t>/./react.js/</t>
+  </si>
+  <si>
+    <t>/search_get_by_id.php?id=4/</t>
+  </si>
+  <si>
+    <t>/business/</t>
+  </si>
+  <si>
+    <t>/jquery.soap.js/</t>
+  </si>
+  <si>
+    <t>/gonowhere/</t>
+  </si>
+  <si>
+    <t>/images/bouncingmike.jpg?a=b/</t>
+  </si>
+  <si>
+    <t>/file1.doc/</t>
+  </si>
+  <si>
+    <t>/javascript: somefunc();/</t>
+  </si>
+  <si>
+    <t>/search_get_by_id.php?id=3/</t>
+  </si>
+  <si>
+    <t>/jquery.xml2json.js/</t>
   </si>
   <si>
     <t>/shutterform/index.php/</t>
@@ -107,178 +245,40 @@
     <t>305</t>
   </si>
   <si>
-    <t>/https://cdnjs.cloudflare.com/ajax/libs/babel-core/5.8.24/browser.js/</t>
-  </si>
-  <si>
-    <t>/jsmenu/dynalink_myfiles.php/</t>
-  </si>
-  <si>
-    <t>/login.php/</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>/myfiles/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/jsmenu/dynalink_myfiles.php </t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>/blah.txt/</t>
-  </si>
-  <si>
-    <t>/soap/demo/</t>
-  </si>
-  <si>
-    <t>/jquery.soap.js/</t>
-  </si>
-  <si>
-    <t>/jquery.xml2json.js/</t>
-  </si>
-  <si>
-    <t>/shutterform/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/jsmenu/auto_shutterdb.php </t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>/datastore/</t>
-  </si>
-  <si>
-    <t>/search_by_id.php/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/jsmenu/auto_datastore.php </t>
-  </si>
-  <si>
-    <t>/search_get_by_id.php?id=4/</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>/jsmenu/cookie_set_coffeepits.php/</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>/./react.js/</t>
+    <t>/javascript: somefunc('blah');/</t>
+  </si>
+  <si>
+    <t>/csrf/</t>
   </si>
   <si>
     <t>/app.js/</t>
   </si>
   <si>
-    <t>/csrf/</t>
-  </si>
-  <si>
-    <t>/js7.js/</t>
-  </si>
-  <si>
-    <t>/datastore/search_by_id.php/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/datastore/ </t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>/jsmenu/gotoajax.php/</t>
-  </si>
-  <si>
-    <t>/file1.doc/</t>
-  </si>
-  <si>
     <t>/xmldb/index.php/</t>
   </si>
   <si>
-    <t>/jsmenu/auto_shutterdb.php/</t>
-  </si>
-  <si>
-    <t>/business/</t>
-  </si>
-  <si>
-    <t>/gonowhere/</t>
-  </si>
-  <si>
-    <t>/http://ajax.aspnetcdn.com/ajax/jquery/jquery-1.9.0.js/</t>
-  </si>
-  <si>
-    <t>/datastore/search_single_by_name.php/</t>
-  </si>
-  <si>
-    <t>319</t>
+    <t>/https://www.rapid7.com/products/appspider/</t>
+  </si>
+  <si>
+    <t>/search_single_by_name.php/</t>
+  </si>
+  <si>
+    <t>/search_get_by_name.php?name=Rake/</t>
+  </si>
+  <si>
+    <t>/jsmenu/gotoframeme.php?foo%3D0+bar%3D+url%3Dhttps%3A%2F%2Fauth.ntobjectives.com+dr%3Dsomedir/</t>
   </si>
   <si>
     <t>/infodb/index.php/</t>
   </si>
   <si>
-    <t>/https://www.rapid7.com/products/appspider/</t>
-  </si>
-  <si>
-    <t>/#/</t>
-  </si>
-  <si>
-    <t>/http://netdna.bootstrapcdn.com/twitter-bootstrap/2.3.2/js/bootstrap.min.js/</t>
-  </si>
-  <si>
-    <t>/datastore/search_by_name.php/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/datastore/search_by_name.php </t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>/search_get_by_id.php?id=3/</t>
-  </si>
-  <si>
-    <t>/javascript: somefunc();/</t>
-  </si>
-  <si>
-    <t>/jsmenu/gotoframeme.php?foo%3D0+bar%3D+url%3Dhttps%3A%2F%2Fauth.ntobjectives.com+dr%3Dsomedir/</t>
-  </si>
-  <si>
-    <t>/javascript: somefunc('blah');/</t>
-  </si>
-  <si>
-    <t>/search_get_by_name.php?name=Rake/</t>
-  </si>
-  <si>
-    <t>/search_by_name.php/</t>
-  </si>
-  <si>
-    <t>/cors/cors.php/</t>
+    <t>/search_double_by_name.php/</t>
+  </si>
+  <si>
+    <t>/jsmenu/dynalink_rfplaces.php/</t>
   </si>
   <si>
     <t>/search_by_statement_index.php/</t>
-  </si>
-  <si>
-    <t>/static/</t>
-  </si>
-  <si>
-    <t>/search_single_by_name.php/</t>
-  </si>
-  <si>
-    <t>/jsmenu/auto_crosstraining.php/</t>
-  </si>
-  <si>
-    <t>/search_double_by_name.php/</t>
-  </si>
-  <si>
-    <t>/images/bouncingmike.jpg?a=b/</t>
-  </si>
-  <si>
-    <t>/jsmenu/dynalink_rfplaces.php/</t>
   </si>
   <si>
     <t>/jsmenu/auto_osrun.php/</t>
@@ -744,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -776,17 +776,15 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s"/>
     </row>
@@ -795,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -823,10 +821,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -840,9 +838,7 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -850,16 +846,16 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -874,7 +870,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -883,17 +879,17 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -907,25 +903,25 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" t="s">
-        <v>36</v>
       </c>
       <c r="K9" t="s"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -940,7 +936,7 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -949,16 +945,16 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -972,9 +968,7 @@
       <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -982,16 +976,16 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1006,25 +1000,25 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1038,9 +1032,7 @@
       <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="n">
         <v>0</v>
       </c>
@@ -1048,16 +1040,16 @@
         <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1071,9 +1063,7 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1081,16 +1071,16 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1112,16 +1102,16 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1135,7 +1125,9 @@
       <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="G16" t="s"/>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
@@ -1143,16 +1135,16 @@
         <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="K16" t="s"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1167,7 +1159,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1176,16 +1168,16 @@
         <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K17" t="s"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1199,7 +1191,9 @@
       <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="G18" t="s"/>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -1207,16 +1201,16 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1230,7 +1224,9 @@
       <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s"/>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
@@ -1238,16 +1234,16 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K19" t="s"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1261,7 +1257,9 @@
       <c r="F20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s"/>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -1269,16 +1267,16 @@
         <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1292,9 +1290,7 @@
       <c r="F21" t="s">
         <v>16</v>
       </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="n">
         <v>0</v>
       </c>
@@ -1302,16 +1298,16 @@
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1326,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1335,7 +1331,7 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s"/>
     </row>
@@ -1344,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1358,9 +1354,7 @@
       <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -1374,43 +1368,43 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
         <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" t="s">
-        <v>57</v>
       </c>
       <c r="K24" t="s"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1424,7 +1418,9 @@
       <c r="F25" t="s">
         <v>16</v>
       </c>
-      <c r="G25" t="s"/>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
@@ -1432,16 +1428,16 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1456,7 +1452,7 @@
         <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1465,16 +1461,16 @@
         <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1489,7 +1485,7 @@
         <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1498,16 +1494,16 @@
         <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K27" t="s"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1529,49 +1525,49 @@
         <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
         <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" t="s">
-        <v>22</v>
       </c>
       <c r="K29" t="s"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1585,7 +1581,9 @@
       <c r="F30" t="s">
         <v>16</v>
       </c>
-      <c r="G30" t="s"/>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
@@ -1593,16 +1591,16 @@
         <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1616,7 +1614,9 @@
       <c r="F31" t="s">
         <v>16</v>
       </c>
-      <c r="G31" t="s"/>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
@@ -1624,16 +1624,16 @@
         <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K31" t="s"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -1648,7 +1648,7 @@
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K32" t="s"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -1681,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -1721,16 +1721,16 @@
         <v>17</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -1744,7 +1744,9 @@
       <c r="F35" t="s">
         <v>16</v>
       </c>
-      <c r="G35" t="s"/>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -1752,16 +1754,16 @@
         <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K35" t="s"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -1776,7 +1778,7 @@
         <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1785,16 +1787,16 @@
         <v>17</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K36" t="s"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -1808,9 +1810,7 @@
       <c r="F37" t="s">
         <v>16</v>
       </c>
-      <c r="G37" t="s">
-        <v>56</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="n">
         <v>0</v>
       </c>
@@ -1818,16 +1818,16 @@
         <v>17</v>
       </c>
       <c r="J37" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="K37" t="s"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -1842,7 +1842,7 @@
         <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1851,16 +1851,16 @@
         <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K38" t="s"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -1875,7 +1875,7 @@
         <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>17</v>
       </c>
       <c r="J39" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="K39" t="s"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -1908,7 +1908,7 @@
         <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1917,16 +1917,16 @@
         <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K40" t="s"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -1941,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1950,16 +1950,16 @@
         <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K41" t="s"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -1973,9 +1973,7 @@
       <c r="F42" t="s">
         <v>16</v>
       </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="n">
         <v>0</v>
       </c>
@@ -1983,16 +1981,16 @@
         <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K42" t="s"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2006,9 +2004,7 @@
       <c r="F43" t="s">
         <v>16</v>
       </c>
-      <c r="G43" t="s">
-        <v>72</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="n">
         <v>0</v>
       </c>
@@ -2016,16 +2012,16 @@
         <v>17</v>
       </c>
       <c r="J43" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2039,7 +2035,9 @@
       <c r="F44" t="s">
         <v>16</v>
       </c>
-      <c r="G44" t="s"/>
+      <c r="G44" t="s">
+        <v>43</v>
+      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -2047,16 +2045,16 @@
         <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K44" t="s"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2071,7 +2069,7 @@
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2080,16 +2078,16 @@
         <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K45" t="s"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -2104,7 +2102,7 @@
         <v>16</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2113,16 +2111,16 @@
         <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -2136,9 +2134,7 @@
       <c r="F47" t="s">
         <v>16</v>
       </c>
-      <c r="G47" t="s">
-        <v>56</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="n">
         <v>0</v>
       </c>
@@ -2146,16 +2142,16 @@
         <v>17</v>
       </c>
       <c r="J47" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="K47" t="s"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -2169,9 +2165,7 @@
       <c r="F48" t="s">
         <v>16</v>
       </c>
-      <c r="G48" t="s">
-        <v>42</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="n">
         <v>0</v>
       </c>
@@ -2179,16 +2173,16 @@
         <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K48" t="s"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -2202,7 +2196,9 @@
       <c r="F49" t="s">
         <v>16</v>
       </c>
-      <c r="G49" t="s"/>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
@@ -2210,16 +2206,16 @@
         <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K49" t="s"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -2233,7 +2229,9 @@
       <c r="F50" t="s">
         <v>16</v>
       </c>
-      <c r="G50" t="s"/>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
@@ -2241,16 +2239,16 @@
         <v>17</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K50" t="s"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -2265,7 +2263,7 @@
         <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2274,17 +2272,17 @@
         <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K51" t="s"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
         <v>34</v>
       </c>
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
@@ -2298,7 +2296,7 @@
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2307,16 +2305,16 @@
         <v>17</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K52" t="s"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -2330,24 +2328,26 @@
       <c r="F53" t="s">
         <v>16</v>
       </c>
-      <c r="G53" t="s"/>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
         <v>17</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2362,7 +2362,7 @@
         <v>16</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>17</v>
       </c>
       <c r="J54" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -2402,16 +2402,16 @@
         <v>17</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="K55" t="s"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2425,9 +2425,7 @@
       <c r="F56" t="s">
         <v>16</v>
       </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="n">
         <v>0</v>
       </c>
@@ -2435,16 +2433,16 @@
         <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K56" t="s"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -2466,16 +2464,16 @@
         <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="K57" t="s"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -2489,9 +2487,7 @@
       <c r="F58" t="s">
         <v>16</v>
       </c>
-      <c r="G58" t="s">
-        <v>72</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="n">
         <v>0</v>
       </c>
@@ -2499,16 +2495,16 @@
         <v>17</v>
       </c>
       <c r="J58" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="K58" t="s"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -2522,9 +2518,7 @@
       <c r="F59" t="s">
         <v>16</v>
       </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="n">
         <v>0</v>
       </c>
@@ -2532,16 +2526,16 @@
         <v>17</v>
       </c>
       <c r="J59" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K59" t="s"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -2556,7 +2550,7 @@
         <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2565,16 +2559,16 @@
         <v>17</v>
       </c>
       <c r="J60" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="K60" t="s"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -2589,7 +2583,7 @@
         <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,16 +2592,16 @@
         <v>17</v>
       </c>
       <c r="J61" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K61" t="s"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -2622,25 +2616,25 @@
         <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
         <v>17</v>
       </c>
       <c r="J62" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -2654,9 +2648,7 @@
       <c r="F63" t="s">
         <v>16</v>
       </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="n">
         <v>0</v>
       </c>
@@ -2664,16 +2656,16 @@
         <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K63" t="s"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -2688,7 +2680,7 @@
         <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2697,16 +2689,16 @@
         <v>17</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K64" t="s"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -2720,7 +2712,9 @@
       <c r="F65" t="s">
         <v>16</v>
       </c>
-      <c r="G65" t="s"/>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
@@ -2728,16 +2722,16 @@
         <v>17</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K65" t="s"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -2751,7 +2745,9 @@
       <c r="F66" t="s">
         <v>16</v>
       </c>
-      <c r="G66" t="s"/>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
@@ -2759,16 +2755,16 @@
         <v>17</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K66" t="s"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -2783,7 +2779,7 @@
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2792,16 +2788,16 @@
         <v>17</v>
       </c>
       <c r="J67" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K67" t="s"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -2823,16 +2819,16 @@
         <v>17</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K68" t="s"/>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -2846,9 +2842,7 @@
       <c r="F69" t="s">
         <v>16</v>
       </c>
-      <c r="G69" t="s">
-        <v>46</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="n">
         <v>0</v>
       </c>
@@ -2856,16 +2850,16 @@
         <v>17</v>
       </c>
       <c r="J69" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K69" t="s"/>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -2879,7 +2873,9 @@
       <c r="F70" t="s">
         <v>16</v>
       </c>
-      <c r="G70" t="s"/>
+      <c r="G70" t="s">
+        <v>55</v>
+      </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
@@ -2887,16 +2883,16 @@
         <v>17</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K70" t="s"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -2910,7 +2906,9 @@
       <c r="F71" t="s">
         <v>16</v>
       </c>
-      <c r="G71" t="s"/>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
@@ -2918,49 +2916,49 @@
         <v>17</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K71" t="s"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
         <v>44</v>
-      </c>
-      <c r="B72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" t="s">
-        <v>25</v>
       </c>
       <c r="K72" t="s"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -2974,7 +2972,9 @@
       <c r="F73" t="s">
         <v>16</v>
       </c>
-      <c r="G73" t="s"/>
+      <c r="G73" t="s">
+        <v>25</v>
+      </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
@@ -2982,16 +2982,16 @@
         <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -3013,49 +3013,49 @@
         <v>17</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="K74" t="s"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
         <v>32</v>
-      </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s">
-        <v>15</v>
-      </c>
-      <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" t="s">
-        <v>25</v>
       </c>
       <c r="K75" t="s"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3069,9 +3069,7 @@
       <c r="F76" t="s">
         <v>16</v>
       </c>
-      <c r="G76" t="s">
-        <v>21</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="n">
         <v>0</v>
       </c>
@@ -3079,16 +3077,16 @@
         <v>17</v>
       </c>
       <c r="J76" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K76" t="s"/>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -3110,16 +3108,16 @@
         <v>17</v>
       </c>
       <c r="J77" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="K77" t="s"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -3133,7 +3131,9 @@
       <c r="F78" t="s">
         <v>16</v>
       </c>
-      <c r="G78" t="s"/>
+      <c r="G78" t="s">
+        <v>55</v>
+      </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>17</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K78" t="s"/>
     </row>
@@ -3150,7 +3150,7 @@
         <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -3174,7 +3174,7 @@
         <v>17</v>
       </c>
       <c r="J79" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K79" t="s"/>
     </row>

--- a/new_excel.xlsx
+++ b/new_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Source URL</t>
   </si>
@@ -74,15 +74,6 @@
     <t>200</t>
   </si>
   <si>
-    <t>Apache/2.4.7 (Ubuntu)</t>
-  </si>
-  <si>
-    <t>text/html; charset=iso-8859-1</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
     <t>/cors/cors.php/</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t xml:space="preserve">/jsmenu/auto_datastore.php </t>
   </si>
   <si>
-    <t>294</t>
-  </si>
-  <si>
     <t>/search_by_id.php/</t>
   </si>
   <si>
@@ -188,36 +176,21 @@
     <t xml:space="preserve">/datastore/ </t>
   </si>
   <si>
-    <t>310</t>
-  </si>
-  <si>
     <t>/datastore/search_by_name.php/</t>
   </si>
   <si>
-    <t>312</t>
-  </si>
-  <si>
     <t xml:space="preserve">/datastore/search_by_name.php </t>
   </si>
   <si>
     <t>/datastore/search_single_by_name.php/</t>
   </si>
   <si>
-    <t>319</t>
-  </si>
-  <si>
     <t xml:space="preserve">/ </t>
   </si>
   <si>
-    <t>309</t>
-  </si>
-  <si>
     <t>/javascript: somefunc('blah');/</t>
   </si>
   <si>
-    <t>311</t>
-  </si>
-  <si>
     <t>/javascript: somefunc();/</t>
   </si>
   <si>
@@ -227,9 +200,6 @@
     <t xml:space="preserve">/jsmenu/dynalink_myfiles.php </t>
   </si>
   <si>
-    <t>292</t>
-  </si>
-  <si>
     <t>/blah.txt/</t>
   </si>
   <si>
@@ -239,9 +209,6 @@
     <t>/./react.js/</t>
   </si>
   <si>
-    <t>290</t>
-  </si>
-  <si>
     <t>/app.js/</t>
   </si>
   <si>
@@ -275,16 +242,10 @@
     <t xml:space="preserve">/jsmenu/auto_shutterdb.php </t>
   </si>
   <si>
-    <t>296</t>
-  </si>
-  <si>
     <t>/shutterform/index.php/</t>
   </si>
   <si>
     <t xml:space="preserve">/shutterform/ </t>
-  </si>
-  <si>
-    <t>305</t>
   </si>
   <si>
     <t>/jquery.soap.js/</t>
@@ -694,28 +655,22 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F2" t="s"/>
       <c r="G2" t="s"/>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I2" t="s"/>
+      <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -723,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -734,28 +689,22 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F3" t="s"/>
       <c r="G3" t="s"/>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -763,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -774,28 +723,22 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
+      <c r="F4" t="s"/>
       <c r="G4" t="s"/>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
       <c r="K4" t="s"/>
       <c r="L4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -803,7 +746,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -814,28 +757,22 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
+      <c r="F5" t="s"/>
       <c r="G5" t="s"/>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
       <c r="K5" t="s"/>
       <c r="L5" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -843,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -854,28 +791,22 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
+      <c r="F6" t="s"/>
       <c r="G6" t="s"/>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -883,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -894,28 +825,22 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
+      <c r="F7" t="s"/>
       <c r="G7" t="s"/>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
       <c r="K7" t="s"/>
       <c r="L7" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -923,7 +848,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -934,28 +859,22 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F8" t="s"/>
       <c r="G8" t="s"/>
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
       <c r="K8" t="s"/>
       <c r="L8" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -963,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -974,28 +893,22 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
+      <c r="F9" t="s"/>
       <c r="G9" t="s"/>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>21</v>
-      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
       <c r="K9" t="s"/>
       <c r="L9" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1003,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1014,28 +927,22 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
+      <c r="F10" t="s"/>
       <c r="G10" t="s"/>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
       <c r="K10" t="s"/>
       <c r="L10" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1043,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1054,28 +961,22 @@
       <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
+      <c r="F11" t="s"/>
       <c r="G11" t="s"/>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
       <c r="K11" t="s"/>
       <c r="L11" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1083,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1094,28 +995,22 @@
       <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
+      <c r="F12" t="s"/>
       <c r="G12" t="s"/>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
       <c r="K12" t="s"/>
       <c r="L12" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1123,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1134,28 +1029,22 @@
       <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
+      <c r="F13" t="s"/>
       <c r="G13" t="s"/>
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
       <c r="K13" t="s"/>
       <c r="L13" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1163,7 +1052,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1174,28 +1063,22 @@
       <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
+      <c r="F14" t="s"/>
       <c r="G14" t="s"/>
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
-      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s"/>
       <c r="K14" t="s"/>
       <c r="L14" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01187980433263452</v>
+        <v>0.001397624039133473</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1203,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1214,28 +1097,22 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
+      <c r="F15" t="s"/>
       <c r="G15" t="s"/>
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s"/>
       <c r="K15" t="s"/>
       <c r="L15" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1243,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1254,28 +1131,22 @@
       <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
+      <c r="F16" t="s"/>
       <c r="G16" t="s"/>
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
       <c r="K16" t="s"/>
       <c r="L16" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1283,7 +1154,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -1294,28 +1165,22 @@
       <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
+      <c r="F17" t="s"/>
       <c r="G17" t="s"/>
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s"/>
       <c r="K17" t="s"/>
       <c r="L17" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1323,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -1334,28 +1199,22 @@
       <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F18" t="s"/>
       <c r="G18" t="s"/>
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s"/>
       <c r="K18" t="s"/>
       <c r="L18" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1363,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -1374,28 +1233,22 @@
       <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
+      <c r="F19" t="s"/>
       <c r="G19" t="s"/>
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s"/>
       <c r="K19" t="s"/>
       <c r="L19" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1403,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1414,28 +1267,22 @@
       <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
+      <c r="F20" t="s"/>
       <c r="G20" t="s"/>
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s">
-        <v>21</v>
-      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s"/>
       <c r="K20" t="s"/>
       <c r="L20" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01187980433263452</v>
+        <v>0.003494060097833682</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1443,7 +1290,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1454,28 +1301,22 @@
       <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
+      <c r="F21" t="s"/>
       <c r="G21" t="s"/>
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s">
-        <v>21</v>
-      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s"/>
       <c r="K21" t="s"/>
       <c r="L21" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01187980433263452</v>
+        <v>0.001397624039133473</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1483,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1494,28 +1335,22 @@
       <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
+      <c r="F22" t="s"/>
       <c r="G22" t="s"/>
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s">
-        <v>21</v>
-      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s"/>
       <c r="K22" t="s"/>
       <c r="L22" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01187980433263452</v>
+        <v>0.002795248078266946</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1523,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1534,28 +1369,22 @@
       <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
+      <c r="F23" t="s"/>
       <c r="G23" t="s"/>
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s">
-        <v>21</v>
-      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s"/>
       <c r="K23" t="s"/>
       <c r="L23" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1563,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1574,36 +1403,30 @@
       <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="s">
-        <v>19</v>
-      </c>
+      <c r="F24" t="s"/>
       <c r="G24" t="s"/>
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" t="s">
-        <v>21</v>
-      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s"/>
       <c r="K24" t="s"/>
       <c r="L24" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01187980433263452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1614,27 +1437,21 @@
       <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
+      <c r="F25" t="s"/>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" t="s">
-        <v>46</v>
-      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s"/>
       <c r="K25" t="s"/>
       <c r="L25" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1642,10 +1459,10 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1656,27 +1473,21 @@
       <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
+      <c r="F26" t="s"/>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" t="s">
-        <v>46</v>
-      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s"/>
       <c r="K26" t="s"/>
       <c r="L26" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1684,10 +1495,10 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
@@ -1698,27 +1509,21 @@
       <c r="E27" t="s">
         <v>18</v>
       </c>
-      <c r="F27" t="s">
-        <v>19</v>
-      </c>
+      <c r="F27" t="s"/>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s">
-        <v>46</v>
-      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s"/>
       <c r="K27" t="s"/>
       <c r="L27" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1726,11 +1531,11 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
@@ -1740,27 +1545,21 @@
       <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="F28" t="s">
-        <v>19</v>
-      </c>
+      <c r="F28" t="s"/>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" t="s">
-        <v>46</v>
-      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s"/>
       <c r="K28" t="s"/>
       <c r="L28" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1768,10 +1567,10 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -1782,27 +1581,21 @@
       <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="s">
-        <v>19</v>
-      </c>
+      <c r="F29" t="s"/>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" t="s">
-        <v>46</v>
-      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s"/>
       <c r="K29" t="s"/>
       <c r="L29" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -1810,10 +1603,10 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1824,27 +1617,21 @@
       <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="F30" t="s">
-        <v>19</v>
-      </c>
+      <c r="F30" t="s"/>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" t="s">
-        <v>46</v>
-      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s"/>
       <c r="K30" t="s"/>
       <c r="L30" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -1852,10 +1639,10 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1866,27 +1653,21 @@
       <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="F31" t="s">
-        <v>19</v>
-      </c>
+      <c r="F31" t="s"/>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" t="s">
-        <v>46</v>
-      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s"/>
       <c r="K31" t="s"/>
       <c r="L31" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -1894,10 +1675,10 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1908,27 +1689,21 @@
       <c r="E32" t="s">
         <v>18</v>
       </c>
-      <c r="F32" t="s">
-        <v>19</v>
-      </c>
+      <c r="F32" t="s"/>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s">
-        <v>46</v>
-      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s"/>
       <c r="K32" t="s"/>
       <c r="L32" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -1936,10 +1711,10 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1950,27 +1725,21 @@
       <c r="E33" t="s">
         <v>18</v>
       </c>
-      <c r="F33" t="s">
-        <v>19</v>
-      </c>
+      <c r="F33" t="s"/>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" t="s">
-        <v>46</v>
-      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s"/>
       <c r="K33" t="s"/>
       <c r="L33" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -1978,10 +1747,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1992,27 +1761,21 @@
       <c r="E34" t="s">
         <v>18</v>
       </c>
-      <c r="F34" t="s">
-        <v>19</v>
-      </c>
+      <c r="F34" t="s"/>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" t="s">
-        <v>46</v>
-      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s"/>
       <c r="K34" t="s"/>
       <c r="L34" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2020,10 +1783,10 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -2034,27 +1797,21 @@
       <c r="E35" t="s">
         <v>18</v>
       </c>
-      <c r="F35" t="s">
-        <v>19</v>
-      </c>
+      <c r="F35" t="s"/>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" t="s">
-        <v>57</v>
-      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s"/>
       <c r="K35" t="s"/>
       <c r="L35" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2062,10 +1819,10 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -2076,27 +1833,21 @@
       <c r="E36" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
-        <v>19</v>
-      </c>
+      <c r="F36" t="s"/>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s">
-        <v>57</v>
-      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s"/>
       <c r="K36" t="s"/>
       <c r="L36" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2104,10 +1855,10 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -2118,27 +1869,21 @@
       <c r="E37" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
+      <c r="F37" t="s"/>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" t="s">
-        <v>59</v>
-      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s"/>
       <c r="K37" t="s"/>
       <c r="L37" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2146,10 +1891,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -2160,27 +1905,21 @@
       <c r="E38" t="s">
         <v>18</v>
       </c>
-      <c r="F38" t="s">
-        <v>19</v>
-      </c>
+      <c r="F38" t="s"/>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" t="s">
-        <v>59</v>
-      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s"/>
       <c r="K38" t="s"/>
       <c r="L38" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2188,10 +1927,10 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -2202,27 +1941,21 @@
       <c r="E39" t="s">
         <v>18</v>
       </c>
-      <c r="F39" t="s">
-        <v>19</v>
-      </c>
+      <c r="F39" t="s"/>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" t="s">
-        <v>59</v>
-      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s"/>
       <c r="K39" t="s"/>
       <c r="L39" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2230,10 +1963,10 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -2244,27 +1977,21 @@
       <c r="E40" t="s">
         <v>18</v>
       </c>
-      <c r="F40" t="s">
-        <v>19</v>
-      </c>
+      <c r="F40" t="s"/>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" t="s">
-        <v>59</v>
-      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s"/>
       <c r="K40" t="s"/>
       <c r="L40" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2272,10 +1999,10 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -2286,27 +2013,21 @@
       <c r="E41" t="s">
         <v>18</v>
       </c>
-      <c r="F41" t="s">
-        <v>19</v>
-      </c>
+      <c r="F41" t="s"/>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" t="s">
-        <v>62</v>
-      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s"/>
       <c r="K41" t="s"/>
       <c r="L41" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2314,10 +2035,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -2328,27 +2049,21 @@
       <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="F42" t="s">
-        <v>19</v>
-      </c>
+      <c r="F42" t="s"/>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" t="s">
-        <v>62</v>
-      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s"/>
       <c r="K42" t="s"/>
       <c r="L42" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2356,10 +2071,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -2370,27 +2085,21 @@
       <c r="E43" t="s">
         <v>18</v>
       </c>
-      <c r="F43" t="s">
-        <v>19</v>
-      </c>
+      <c r="F43" t="s"/>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" t="s">
-        <v>64</v>
-      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s"/>
       <c r="K43" t="s"/>
       <c r="L43" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M43" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2398,10 +2107,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -2412,27 +2121,21 @@
       <c r="E44" t="s">
         <v>18</v>
       </c>
-      <c r="F44" t="s">
-        <v>19</v>
-      </c>
+      <c r="F44" t="s"/>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" t="s">
-        <v>64</v>
-      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s"/>
       <c r="K44" t="s"/>
       <c r="L44" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M44" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2440,10 +2143,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -2454,27 +2157,21 @@
       <c r="E45" t="s">
         <v>18</v>
       </c>
-      <c r="F45" t="s">
-        <v>19</v>
-      </c>
+      <c r="F45" t="s"/>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" t="s">
-        <v>64</v>
-      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s"/>
       <c r="K45" t="s"/>
       <c r="L45" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M45" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2482,10 +2179,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -2496,27 +2193,21 @@
       <c r="E46" t="s">
         <v>18</v>
       </c>
-      <c r="F46" t="s">
-        <v>19</v>
-      </c>
+      <c r="F46" t="s"/>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" t="s">
-        <v>64</v>
-      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s"/>
       <c r="K46" t="s"/>
       <c r="L46" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M46" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2524,10 +2215,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -2538,38 +2229,32 @@
       <c r="E47" t="s">
         <v>18</v>
       </c>
-      <c r="F47" t="s">
-        <v>19</v>
-      </c>
+      <c r="F47" t="s"/>
       <c r="G47" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" t="s">
-        <v>66</v>
-      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s"/>
       <c r="K47" t="s"/>
       <c r="L47" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M47" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N47" t="n">
-        <v>0.001397624039133473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -2580,38 +2265,32 @@
       <c r="E48" t="s">
         <v>18</v>
       </c>
-      <c r="F48" t="s">
-        <v>19</v>
-      </c>
+      <c r="F48" t="s"/>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" t="s">
-        <v>66</v>
-      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s"/>
       <c r="K48" t="s"/>
       <c r="L48" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M48" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N48" t="n">
-        <v>0.001397624039133473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -2622,38 +2301,32 @@
       <c r="E49" t="s">
         <v>18</v>
       </c>
-      <c r="F49" t="s">
-        <v>19</v>
-      </c>
+      <c r="F49" t="s"/>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" t="s">
-        <v>66</v>
-      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s"/>
       <c r="K49" t="s"/>
       <c r="L49" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M49" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N49" t="n">
-        <v>0.001397624039133473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -2664,35 +2337,29 @@
       <c r="E50" t="s">
         <v>18</v>
       </c>
-      <c r="F50" t="s">
-        <v>19</v>
-      </c>
+      <c r="F50" t="s"/>
       <c r="G50" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" t="s">
-        <v>66</v>
-      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s"/>
       <c r="K50" t="s"/>
       <c r="L50" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M50" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N50" t="n">
-        <v>0.001397624039133473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -2706,38 +2373,32 @@
       <c r="E51" t="s">
         <v>18</v>
       </c>
-      <c r="F51" t="s">
-        <v>19</v>
-      </c>
+      <c r="F51" t="s"/>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" t="s">
-        <v>70</v>
-      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s"/>
       <c r="K51" t="s"/>
       <c r="L51" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>0.01187980433263452</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -2748,27 +2409,21 @@
       <c r="E52" t="s">
         <v>18</v>
       </c>
-      <c r="F52" t="s">
-        <v>19</v>
-      </c>
+      <c r="F52" t="s"/>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" t="s">
-        <v>70</v>
-      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s"/>
       <c r="K52" t="s"/>
       <c r="L52" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -2776,10 +2431,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -2790,27 +2445,21 @@
       <c r="E53" t="s">
         <v>18</v>
       </c>
-      <c r="F53" t="s">
-        <v>19</v>
-      </c>
+      <c r="F53" t="s"/>
       <c r="G53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" t="s">
-        <v>70</v>
-      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s"/>
       <c r="K53" t="s"/>
       <c r="L53" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -2818,10 +2467,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -2832,27 +2481,21 @@
       <c r="E54" t="s">
         <v>18</v>
       </c>
-      <c r="F54" t="s">
-        <v>19</v>
-      </c>
+      <c r="F54" t="s"/>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" t="s">
-        <v>70</v>
-      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s"/>
       <c r="K54" t="s"/>
       <c r="L54" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -2860,10 +2503,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -2874,27 +2517,21 @@
       <c r="E55" t="s">
         <v>18</v>
       </c>
-      <c r="F55" t="s">
-        <v>19</v>
-      </c>
+      <c r="F55" t="s"/>
       <c r="G55" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" t="s">
-        <v>70</v>
-      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s"/>
       <c r="K55" t="s"/>
       <c r="L55" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -2902,10 +2539,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -2916,36 +2553,30 @@
       <c r="E56" t="s">
         <v>18</v>
       </c>
-      <c r="F56" t="s">
-        <v>19</v>
-      </c>
+      <c r="F56" t="s"/>
       <c r="G56" t="s"/>
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" t="s">
-        <v>74</v>
-      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s"/>
       <c r="K56" t="s"/>
       <c r="L56" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M56" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N56" t="n">
-        <v>0.003494060097833682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -2956,38 +2587,32 @@
       <c r="E57" t="s">
         <v>18</v>
       </c>
-      <c r="F57" t="s">
-        <v>19</v>
-      </c>
+      <c r="F57" t="s"/>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" t="s">
-        <v>74</v>
-      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s"/>
       <c r="K57" t="s"/>
       <c r="L57" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M57" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N57" t="n">
-        <v>0.003494060097833682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -2998,36 +2623,30 @@
       <c r="E58" t="s">
         <v>18</v>
       </c>
-      <c r="F58" t="s">
-        <v>19</v>
-      </c>
+      <c r="F58" t="s"/>
       <c r="G58" t="s"/>
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" t="s">
-        <v>74</v>
-      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s"/>
       <c r="K58" t="s"/>
       <c r="L58" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M58" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N58" t="n">
-        <v>0.003494060097833682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -3038,38 +2657,32 @@
       <c r="E59" t="s">
         <v>18</v>
       </c>
-      <c r="F59" t="s">
-        <v>19</v>
-      </c>
+      <c r="F59" t="s"/>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" t="s">
-        <v>74</v>
-      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s"/>
       <c r="K59" t="s"/>
       <c r="L59" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M59" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N59" t="n">
-        <v>0.003494060097833682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -3080,36 +2693,30 @@
       <c r="E60" t="s">
         <v>18</v>
       </c>
-      <c r="F60" t="s">
-        <v>19</v>
-      </c>
+      <c r="F60" t="s"/>
       <c r="G60" t="s"/>
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" t="s">
-        <v>74</v>
-      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s"/>
       <c r="K60" t="s"/>
       <c r="L60" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M60" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N60" t="n">
-        <v>0.003494060097833682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -3120,38 +2727,32 @@
       <c r="E61" t="s">
         <v>18</v>
       </c>
-      <c r="F61" t="s">
-        <v>19</v>
-      </c>
+      <c r="F61" t="s"/>
       <c r="G61" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" t="s">
-        <v>74</v>
-      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s"/>
       <c r="K61" t="s"/>
       <c r="L61" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M61" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N61" t="n">
-        <v>0.003494060097833682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -3162,36 +2763,30 @@
       <c r="E62" t="s">
         <v>18</v>
       </c>
-      <c r="F62" t="s">
-        <v>19</v>
-      </c>
+      <c r="F62" t="s"/>
       <c r="G62" t="s"/>
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" t="s">
-        <v>74</v>
-      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s"/>
       <c r="K62" t="s"/>
       <c r="L62" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M62" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N62" t="n">
-        <v>0.003494060097833682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -3202,38 +2797,32 @@
       <c r="E63" t="s">
         <v>18</v>
       </c>
-      <c r="F63" t="s">
-        <v>19</v>
-      </c>
+      <c r="F63" t="s"/>
       <c r="G63" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" t="s">
-        <v>74</v>
-      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s"/>
       <c r="K63" t="s"/>
       <c r="L63" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M63" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N63" t="n">
-        <v>0.003494060097833682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -3244,36 +2833,30 @@
       <c r="E64" t="s">
         <v>18</v>
       </c>
-      <c r="F64" t="s">
-        <v>19</v>
-      </c>
+      <c r="F64" t="s"/>
       <c r="G64" t="s"/>
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" t="s">
-        <v>74</v>
-      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s"/>
       <c r="K64" t="s"/>
       <c r="L64" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M64" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N64" t="n">
-        <v>0.003494060097833682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -3284,38 +2867,32 @@
       <c r="E65" t="s">
         <v>18</v>
       </c>
-      <c r="F65" t="s">
-        <v>19</v>
-      </c>
+      <c r="F65" t="s"/>
       <c r="G65" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" t="s">
-        <v>74</v>
-      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s"/>
       <c r="K65" t="s"/>
       <c r="L65" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M65" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N65" t="n">
-        <v>0.003494060097833682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -3326,38 +2903,32 @@
       <c r="E66" t="s">
         <v>18</v>
       </c>
-      <c r="F66" t="s">
-        <v>19</v>
-      </c>
+      <c r="F66" t="s"/>
       <c r="G66" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" t="s">
-        <v>46</v>
-      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s"/>
       <c r="K66" t="s"/>
       <c r="L66" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M66" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="N66" t="n">
-        <v>0.001397624039133473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -3368,38 +2939,32 @@
       <c r="E67" t="s">
         <v>18</v>
       </c>
-      <c r="F67" t="s">
-        <v>19</v>
-      </c>
+      <c r="F67" t="s"/>
       <c r="G67" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" t="s">
-        <v>46</v>
-      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s"/>
       <c r="K67" t="s"/>
       <c r="L67" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M67" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="N67" t="n">
-        <v>0.001397624039133473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -3410,38 +2975,32 @@
       <c r="E68" t="s">
         <v>18</v>
       </c>
-      <c r="F68" t="s">
-        <v>19</v>
-      </c>
+      <c r="F68" t="s"/>
       <c r="G68" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" t="s">
-        <v>46</v>
-      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s"/>
       <c r="K68" t="s"/>
       <c r="L68" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M68" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="N68" t="n">
-        <v>0.001397624039133473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -3452,38 +3011,32 @@
       <c r="E69" t="s">
         <v>18</v>
       </c>
-      <c r="F69" t="s">
-        <v>19</v>
-      </c>
+      <c r="F69" t="s"/>
       <c r="G69" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="s">
-        <v>20</v>
-      </c>
-      <c r="J69" t="s">
-        <v>46</v>
-      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s"/>
       <c r="K69" t="s"/>
       <c r="L69" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M69" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="N69" t="n">
-        <v>0.001397624039133473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -3494,27 +3047,21 @@
       <c r="E70" t="s">
         <v>18</v>
       </c>
-      <c r="F70" t="s">
-        <v>19</v>
-      </c>
+      <c r="F70" t="s"/>
       <c r="G70" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I70" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" t="s">
-        <v>86</v>
-      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s"/>
       <c r="K70" t="s"/>
       <c r="L70" t="n">
         <v>0.03703703703703703</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -3522,10 +3069,10 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -3536,27 +3083,21 @@
       <c r="E71" t="s">
         <v>18</v>
       </c>
-      <c r="F71" t="s">
-        <v>19</v>
-      </c>
+      <c r="F71" t="s"/>
       <c r="G71" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" t="s">
-        <v>86</v>
-      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s"/>
       <c r="K71" t="s"/>
       <c r="L71" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -3564,10 +3105,10 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -3578,27 +3119,21 @@
       <c r="E72" t="s">
         <v>18</v>
       </c>
-      <c r="F72" t="s">
-        <v>19</v>
-      </c>
+      <c r="F72" t="s"/>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" t="s">
-        <v>89</v>
-      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s"/>
       <c r="K72" t="s"/>
       <c r="L72" t="n">
         <v>0.03703703703703703</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -3606,10 +3141,10 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -3620,27 +3155,21 @@
       <c r="E73" t="s">
         <v>18</v>
       </c>
-      <c r="F73" t="s">
-        <v>19</v>
-      </c>
+      <c r="F73" t="s"/>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" t="s">
-        <v>89</v>
-      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s"/>
       <c r="K73" t="s"/>
       <c r="L73" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -3648,10 +3177,10 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -3662,38 +3191,32 @@
       <c r="E74" t="s">
         <v>18</v>
       </c>
-      <c r="F74" t="s">
-        <v>19</v>
-      </c>
+      <c r="F74" t="s"/>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="s">
-        <v>20</v>
-      </c>
-      <c r="J74" t="s">
-        <v>46</v>
-      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s"/>
       <c r="K74" t="s"/>
       <c r="L74" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M74" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="N74" t="n">
-        <v>0.002795248078266946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -3704,38 +3227,32 @@
       <c r="E75" t="s">
         <v>18</v>
       </c>
-      <c r="F75" t="s">
-        <v>19</v>
-      </c>
+      <c r="F75" t="s"/>
       <c r="G75" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" t="s">
-        <v>46</v>
-      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s"/>
       <c r="K75" t="s"/>
       <c r="L75" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M75" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="N75" t="n">
-        <v>0.002795248078266946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
@@ -3746,38 +3263,32 @@
       <c r="E76" t="s">
         <v>18</v>
       </c>
-      <c r="F76" t="s">
-        <v>19</v>
-      </c>
+      <c r="F76" t="s"/>
       <c r="G76" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" t="s">
-        <v>46</v>
-      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s"/>
       <c r="K76" t="s"/>
       <c r="L76" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M76" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="N76" t="n">
-        <v>0.002795248078266946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -3788,38 +3299,32 @@
       <c r="E77" t="s">
         <v>18</v>
       </c>
-      <c r="F77" t="s">
-        <v>19</v>
-      </c>
+      <c r="F77" t="s"/>
       <c r="G77" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" t="s">
-        <v>46</v>
-      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s"/>
       <c r="K77" t="s"/>
       <c r="L77" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="M77" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.04232804232804233</v>
       </c>
       <c r="N77" t="n">
-        <v>0.002795248078266946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -3830,38 +3335,32 @@
       <c r="E78" t="s">
         <v>18</v>
       </c>
-      <c r="F78" t="s">
-        <v>19</v>
-      </c>
+      <c r="F78" t="s"/>
       <c r="G78" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" t="s">
-        <v>46</v>
-      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s"/>
       <c r="K78" t="s"/>
       <c r="L78" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N78" t="n">
-        <v>0.002795248078266946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -3872,30 +3371,24 @@
       <c r="E79" t="s">
         <v>18</v>
       </c>
-      <c r="F79" t="s">
-        <v>19</v>
-      </c>
+      <c r="F79" t="s"/>
       <c r="G79" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" t="s">
-        <v>46</v>
-      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s"/>
       <c r="K79" t="s"/>
       <c r="L79" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="N79" t="n">
-        <v>0.002795248078266946</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/new_excel.xlsx
+++ b/new_excel.xlsx
@@ -23,175 +23,175 @@
     <t>Outgoing URL</t>
   </si>
   <si>
+    <t>/bank/pay-bills.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/jquery-ui.min.js/</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/bank/transfer-funds.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/placeholders.min.js/</t>
+  </si>
+  <si>
+    <t>/help.html/</t>
+  </si>
+  <si>
+    <t>/bank/online-statements.html/</t>
+  </si>
+  <si>
+    <t>/bank/redirect.html/</t>
+  </si>
+  <si>
+    <t>/online-banking.html/</t>
+  </si>
+  <si>
+    <t>/logout.html/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills-new-payee.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/jquery-1.8.2.min.js/</t>
+  </si>
+  <si>
+    <t>/bank/money-map.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/ReportInflow.js/</t>
+  </si>
+  <si>
+    <t>/bank/transfer-funds-verify.html/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills-saved-payee.html/</t>
+  </si>
+  <si>
+    <t>/index.html/</t>
+  </si>
+  <si>
     <t>/bank/account-activity.html/</t>
   </si>
   <si>
+    <t>/bank/account-summary.html/</t>
+  </si>
+  <si>
+    <t>/login.html/</t>
+  </si>
+  <si>
     <t>/search.html/</t>
   </si>
   <si>
-    <t>/bank/pay-bills-saved-payee.html/</t>
-  </si>
-  <si>
-    <t>/index.html/</t>
-  </si>
-  <si>
-    <t>/help.html/</t>
+    <t>/bank/pay-bills-conversion-rate-for-currency.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/bootstrap.min.js/</t>
+  </si>
+  <si>
+    <t>/bank/online-statements-by-name.html/</t>
   </si>
   <si>
     <t>/bank/transfer-funds-confirm.html/</t>
   </si>
   <si>
-    <t>/bank/pay-bills-new-payee.html/</t>
-  </si>
-  <si>
-    <t>/bank/redirect.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/placeholders.min.js/</t>
-  </si>
-  <si>
-    <t>/bank/online-statements.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-1.8.2.min.js/</t>
+    <t>/resources/extjs/app/store/ReportCredit.js/</t>
+  </si>
+  <si>
+    <t>/bank/pay-bills-purchase-currency.html/</t>
+  </si>
+  <si>
+    <t>/auth/accept-certs.html/</t>
+  </si>
+  <si>
+    <t>/bank/account-activity-find-transactions.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/DetailedReportWindow.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/SummaryReport.js/</t>
+  </si>
+  <si>
+    <t>/signin.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/model/Report.js/</t>
+  </si>
+  <si>
+    <t>/bank/online-statements-for-account.html/</t>
+  </si>
+  <si>
+    <t>/bank/account-activity-show-transactions.html/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/Viewport.js/</t>
   </si>
   <si>
     <t>/#/</t>
   </si>
   <si>
-    <t>/bank/pay-bills.html/</t>
-  </si>
-  <si>
-    <t>/bank/money-map.html/</t>
+    <t>/#os_2011/</t>
+  </si>
+  <si>
+    <t>/auth/security-check.html/</t>
+  </si>
+  <si>
+    <t>/#os_2012/</t>
+  </si>
+  <si>
+    <t>/#carousel/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/app.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/model/DetailedReport.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/view/DetailedReport.js/</t>
+  </si>
+  <si>
+    <t>/#os_2010/</t>
   </si>
   <si>
     <t>/resources/extjs/ext/ext-all.js/</t>
   </si>
   <si>
-    <t>/bank/pay-bills-purchase-currency.html/</t>
-  </si>
-  <si>
-    <t>/bank/transfer-funds-verify.html/</t>
+    <t>/resources/extjs/app/controller/Report.js/</t>
+  </si>
+  <si>
+    <t>/43/auth/accept-certs.html/</t>
+  </si>
+  <si>
+    <t>/forgot-password.html/</t>
+  </si>
+  <si>
+    <t>/resources/js/jquery-1.7.2.min.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/ReportSummary.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/ReportOutFlow.js/</t>
+  </si>
+  <si>
+    <t>/resources/extjs/app/store/DetailedReport.js/</t>
   </si>
   <si>
     <t>/a/</t>
   </si>
   <si>
-    <t>/bank/online-statements-by-name.html/</t>
-  </si>
-  <si>
-    <t>/resources/js/bootstrap.min.js/</t>
-  </si>
-  <si>
-    <t>/online-banking.html/</t>
-  </si>
-  <si>
-    <t>/bank/account-summary.html/</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>/login.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportOutFlow.js/</t>
-  </si>
-  <si>
-    <t>/auth/accept-certs.html/</t>
-  </si>
-  <si>
-    <t>/bank/account-activity-show-transactions.html/</t>
-  </si>
-  <si>
-    <t>/bank/pay-bills-conversion-rate-for-currency.html/</t>
-  </si>
-  <si>
-    <t>/bank/transfer-funds.html/</t>
-  </si>
-  <si>
-    <t>/logout.html/</t>
-  </si>
-  <si>
     <t>/resources/extjs/app/view/Report.js/</t>
   </si>
   <si>
-    <t>/bank/online-statements-for-account.html/</t>
-  </si>
-  <si>
     <t>/#os_2009/</t>
   </si>
   <si>
-    <t>/forgot-password.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/model/DetailedReport.js/</t>
-  </si>
-  <si>
-    <t>/#os_2011/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportCredit.js/</t>
-  </si>
-  <si>
-    <t>/#os_2012/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/app.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/DetailedReportWindow.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/controller/Report.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/Viewport.js/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-1.7.2.min.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/SummaryReport.js/</t>
-  </si>
-  <si>
-    <t>/signin.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/view/DetailedReport.js/</t>
-  </si>
-  <si>
-    <t>/resources/js/jquery-ui.min.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportSummary.js/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/model/Report.js/</t>
-  </si>
-  <si>
-    <t>/#carousel/</t>
-  </si>
-  <si>
-    <t>/43/auth/accept-certs.html/</t>
-  </si>
-  <si>
     <t>/bank/money-map-get-spendings-by-type.html/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/DetailedReport.js/</t>
-  </si>
-  <si>
-    <t>/bank/account-activity-find-transactions.html/</t>
-  </si>
-  <si>
-    <t>/#os_2010/</t>
-  </si>
-  <si>
-    <t>/resources/extjs/app/store/ReportInflow.js/</t>
-  </si>
-  <si>
-    <t>/auth/security-check.html/</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,12 +556,12 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -585,23 +585,23 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -612,76 +612,76 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -689,183 +689,183 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -873,66 +873,66 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -940,119 +940,119 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
         <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1060,20 +1060,20 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
@@ -1081,23 +1081,23 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1116,31 +1116,31 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1148,20 +1148,20 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -1169,26 +1169,26 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
         <v>22</v>
-      </c>
-      <c r="B81" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1196,20 +1196,20 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -1217,143 +1217,143 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
         <v>24</v>
-      </c>
-      <c r="B97" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
@@ -1361,319 +1361,319 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B110" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" t="s">
         <v>11</v>
-      </c>
-      <c r="B134" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B141" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -1681,194 +1681,194 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1876,15 +1876,15 @@
         <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1892,55 +1892,55 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
         <v>7</v>
-      </c>
-      <c r="B172" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B175" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1948,71 +1948,71 @@
         <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2020,79 +2020,191 @@
         <v>5</v>
       </c>
       <c r="B186" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B191" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B192" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B195" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>40</v>
+      </c>
+      <c r="B196" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>49</v>
+      </c>
+      <c r="B197" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>29</v>
+      </c>
+      <c r="B200" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>29</v>
+      </c>
+      <c r="B201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>20</v>
+      </c>
+      <c r="B202" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>33</v>
+      </c>
+      <c r="B203" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>33</v>
+      </c>
+      <c r="B204" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>28</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
